--- a/tests/data/bell/test-Cost overview.xlsx
+++ b/tests/data/bell/test-Cost overview.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>Invoice date</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>Zone 2 (Egypt) data cost</t>
-  </si>
-  <si>
-    <t>test-value-1</t>
   </si>
   <si>
     <t>test-group-1</t>
@@ -365,7 +362,7 @@
   <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="60" formatCode="[$$-409] #,##0.00"/>
+    <numFmt numFmtId="60" formatCode="[$$-409]&quot; &quot;#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -390,7 +387,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +400,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -427,13 +430,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -443,16 +533,46 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -474,6 +594,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff4f81bd"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -611,13 +732,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -715,10 +830,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -964,13 +1079,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1272,10 +1381,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1520,7 +1629,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CF4"/>
+  <dimension ref="A1:CF10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1863,663 +1972,1179 @@
       <c r="A2" s="3">
         <v>44958</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4">
+        <v>1122</v>
+      </c>
+      <c r="C2" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="D2" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="E2" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="F2" t="s" s="5">
         <v>87</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="G2" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="H2" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="I2" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="I2" t="s" s="4">
+      <c r="J2" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="3">
         <v>36234</v>
       </c>
-      <c r="P2" t="s" s="4">
+      <c r="P2" t="s" s="5">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="Q2" t="s" s="4">
+      <c r="R2" t="s" s="5">
         <v>95</v>
       </c>
-      <c r="R2" t="s" s="4">
+      <c r="S2" t="s" s="5">
+        <v>95</v>
+      </c>
+      <c r="T2" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="S2" t="s" s="4">
-        <v>96</v>
-      </c>
-      <c r="T2" t="s" s="4">
-        <v>97</v>
-      </c>
       <c r="U2" s="3"/>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7">
         <v>52</v>
       </c>
-      <c r="X2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="6">
+      <c r="X2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
         <v>6.76</v>
       </c>
-      <c r="AC2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="6">
+      <c r="AC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="7">
         <v>6.76</v>
       </c>
-      <c r="AL2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="6">
+      <c r="AL2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="7">
         <v>6.76</v>
       </c>
-      <c r="AN2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="6">
+      <c r="AN2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="7">
         <v>58.76</v>
       </c>
-      <c r="AP2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="6"/>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="6"/>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="6"/>
-      <c r="BY2" s="6"/>
-      <c r="BZ2" s="6"/>
-      <c r="CA2" s="6"/>
-      <c r="CB2" s="6"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="6"/>
-      <c r="CE2" s="6"/>
-      <c r="CF2" s="6"/>
+      <c r="AP2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="7"/>
+      <c r="BU2" s="7"/>
+      <c r="BV2" s="7"/>
+      <c r="BW2" s="7"/>
+      <c r="BX2" s="7"/>
+      <c r="BY2" s="7"/>
+      <c r="BZ2" s="7"/>
+      <c r="CA2" s="7"/>
+      <c r="CB2" s="7"/>
+      <c r="CC2" s="7"/>
+      <c r="CD2" s="7"/>
+      <c r="CE2" s="7"/>
+      <c r="CF2" s="7"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="3">
         <v>44958</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4">
+        <v>1122</v>
+      </c>
+      <c r="C3" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="D3" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="E3" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="F3" t="s" s="5">
         <v>87</v>
       </c>
-      <c r="F3" t="s" s="4">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="5">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s" s="5">
         <v>98</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="I3" t="s" s="5">
         <v>99</v>
       </c>
-      <c r="I3" t="s" s="4">
+      <c r="J3" t="s" s="5">
+        <v>91</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="J3" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="3">
         <v>37791</v>
       </c>
-      <c r="P3" t="s" s="4">
-        <v>94</v>
-      </c>
-      <c r="Q3" t="s" s="4">
+      <c r="P3" t="s" s="5">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="s" s="5">
+        <v>101</v>
+      </c>
+      <c r="R3" t="s" s="5">
         <v>102</v>
       </c>
-      <c r="R3" t="s" s="4">
+      <c r="S3" t="s" s="5">
+        <v>102</v>
+      </c>
+      <c r="T3" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="S3" t="s" s="4">
-        <v>103</v>
-      </c>
-      <c r="T3" t="s" s="4">
-        <v>104</v>
-      </c>
       <c r="U3" s="3"/>
-      <c r="V3" s="6">
-        <v>0</v>
-      </c>
-      <c r="W3" s="6">
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
         <v>47</v>
       </c>
-      <c r="X3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="6">
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
         <v>6.11</v>
       </c>
-      <c r="AC3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="6">
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="7">
         <v>6.11</v>
       </c>
-      <c r="AL3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="6">
+      <c r="AL3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="7">
         <v>6.11</v>
       </c>
-      <c r="AN3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="6">
+      <c r="AN3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="7">
         <v>53.11</v>
       </c>
-      <c r="AP3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="6">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="6"/>
-      <c r="BU3" s="6"/>
-      <c r="BV3" s="6"/>
-      <c r="BW3" s="6"/>
-      <c r="BX3" s="6"/>
-      <c r="BY3" s="6"/>
-      <c r="BZ3" s="6"/>
-      <c r="CA3" s="6"/>
-      <c r="CB3" s="6"/>
-      <c r="CC3" s="6"/>
-      <c r="CD3" s="6"/>
-      <c r="CE3" s="6"/>
-      <c r="CF3" s="6"/>
+      <c r="AP3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="7"/>
+      <c r="BU3" s="7"/>
+      <c r="BV3" s="7"/>
+      <c r="BW3" s="7"/>
+      <c r="BX3" s="7"/>
+      <c r="BY3" s="7"/>
+      <c r="BZ3" s="7"/>
+      <c r="CA3" s="7"/>
+      <c r="CB3" s="7"/>
+      <c r="CC3" s="7"/>
+      <c r="CD3" s="7"/>
+      <c r="CE3" s="7"/>
+      <c r="CF3" s="7"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="3">
         <v>44958</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4">
+        <v>1122</v>
+      </c>
+      <c r="C4" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="D4" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="D4" t="s" s="4">
+      <c r="E4" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="E4" t="s" s="4">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s" s="4">
+      <c r="F4" t="s" s="5">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s" s="5">
         <v>105</v>
       </c>
-      <c r="G4" t="s" s="4">
+      <c r="H4" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="H4" t="s" s="4">
+      <c r="I4" t="s" s="5">
         <v>107</v>
       </c>
-      <c r="I4" t="s" s="4">
+      <c r="J4" t="s" s="5">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="5">
         <v>108</v>
       </c>
-      <c r="J4" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="K4" t="s" s="4">
+      <c r="L4" s="6"/>
+      <c r="M4" t="s" s="5">
         <v>109</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" t="s" s="4">
-        <v>110</v>
-      </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="3">
         <v>33557</v>
       </c>
-      <c r="P4" t="s" s="4">
+      <c r="P4" t="s" s="5">
+        <v>110</v>
+      </c>
+      <c r="Q4" t="s" s="5">
         <v>111</v>
       </c>
-      <c r="Q4" t="s" s="4">
+      <c r="R4" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="R4" t="s" s="4">
+      <c r="S4" t="s" s="5">
+        <v>112</v>
+      </c>
+      <c r="T4" t="s" s="5">
         <v>113</v>
       </c>
-      <c r="S4" t="s" s="4">
-        <v>113</v>
-      </c>
-      <c r="T4" t="s" s="4">
-        <v>114</v>
-      </c>
       <c r="U4" s="3"/>
-      <c r="V4" s="6">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6">
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
         <v>47</v>
       </c>
-      <c r="X4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="6">
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
         <v>6.11</v>
       </c>
-      <c r="AC4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="6">
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="7">
         <v>6.11</v>
       </c>
-      <c r="AL4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="6">
+      <c r="AL4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="7">
         <v>6.11</v>
       </c>
-      <c r="AN4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="6">
+      <c r="AN4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="7">
         <v>53.11</v>
       </c>
-      <c r="AP4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="6"/>
-      <c r="BU4" s="6"/>
-      <c r="BV4" s="6"/>
-      <c r="BW4" s="6"/>
-      <c r="BX4" s="6"/>
-      <c r="BY4" s="6"/>
-      <c r="BZ4" s="6"/>
-      <c r="CA4" s="6"/>
-      <c r="CB4" s="6"/>
-      <c r="CC4" s="6"/>
-      <c r="CD4" s="6"/>
-      <c r="CE4" s="6"/>
-      <c r="CF4" s="6"/>
+      <c r="AP4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7"/>
+      <c r="CB4" s="7"/>
+      <c r="CC4" s="7"/>
+      <c r="CD4" s="7"/>
+      <c r="CE4" s="7"/>
+      <c r="CF4" s="7"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="9"/>
+      <c r="CF5" s="10"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CC6" s="12"/>
+      <c r="CD6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CF6" s="13"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
+      <c r="BR7" s="12"/>
+      <c r="BS7" s="12"/>
+      <c r="BT7" s="12"/>
+      <c r="BU7" s="12"/>
+      <c r="BV7" s="12"/>
+      <c r="BW7" s="12"/>
+      <c r="BX7" s="12"/>
+      <c r="BY7" s="12"/>
+      <c r="BZ7" s="12"/>
+      <c r="CA7" s="12"/>
+      <c r="CB7" s="12"/>
+      <c r="CC7" s="12"/>
+      <c r="CD7" s="12"/>
+      <c r="CE7" s="12"/>
+      <c r="CF7" s="13"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="12"/>
+      <c r="BQ8" s="12"/>
+      <c r="BR8" s="12"/>
+      <c r="BS8" s="12"/>
+      <c r="BT8" s="12"/>
+      <c r="BU8" s="12"/>
+      <c r="BV8" s="12"/>
+      <c r="BW8" s="12"/>
+      <c r="BX8" s="12"/>
+      <c r="BY8" s="12"/>
+      <c r="BZ8" s="12"/>
+      <c r="CA8" s="12"/>
+      <c r="CB8" s="12"/>
+      <c r="CC8" s="12"/>
+      <c r="CD8" s="12"/>
+      <c r="CE8" s="12"/>
+      <c r="CF8" s="13"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="12"/>
+      <c r="BI9" s="12"/>
+      <c r="BJ9" s="12"/>
+      <c r="BK9" s="12"/>
+      <c r="BL9" s="12"/>
+      <c r="BM9" s="12"/>
+      <c r="BN9" s="12"/>
+      <c r="BO9" s="12"/>
+      <c r="BP9" s="12"/>
+      <c r="BQ9" s="12"/>
+      <c r="BR9" s="12"/>
+      <c r="BS9" s="12"/>
+      <c r="BT9" s="12"/>
+      <c r="BU9" s="12"/>
+      <c r="BV9" s="12"/>
+      <c r="BW9" s="12"/>
+      <c r="BX9" s="12"/>
+      <c r="BY9" s="12"/>
+      <c r="BZ9" s="12"/>
+      <c r="CA9" s="12"/>
+      <c r="CB9" s="12"/>
+      <c r="CC9" s="12"/>
+      <c r="CD9" s="12"/>
+      <c r="CE9" s="12"/>
+      <c r="CF9" s="13"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15"/>
+      <c r="BO10" s="15"/>
+      <c r="BP10" s="15"/>
+      <c r="BQ10" s="15"/>
+      <c r="BR10" s="15"/>
+      <c r="BS10" s="15"/>
+      <c r="BT10" s="15"/>
+      <c r="BU10" s="15"/>
+      <c r="BV10" s="15"/>
+      <c r="BW10" s="15"/>
+      <c r="BX10" s="15"/>
+      <c r="BY10" s="15"/>
+      <c r="BZ10" s="15"/>
+      <c r="CA10" s="15"/>
+      <c r="CB10" s="15"/>
+      <c r="CC10" s="15"/>
+      <c r="CD10" s="15"/>
+      <c r="CE10" s="15"/>
+      <c r="CF10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
